--- a/routes.xlsx
+++ b/routes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="routes" sheetId="1" state="visible" r:id="rId2"/>
@@ -553,21 +553,21 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.48979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.18877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.65816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,6 +931,9 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
@@ -1545,6 +1548,9 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B50" s="0" t="s">
         <v>32</v>
       </c>
@@ -1848,6 +1854,9 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B65" s="0" t="s">
         <v>8</v>
       </c>
@@ -1859,6 +1868,9 @@
       </c>
       <c r="E65" s="0" t="n">
         <v>16</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>2.4</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>380</v>

--- a/routes.xlsx
+++ b/routes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="routes" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="148">
   <si>
     <t xml:space="preserve">done</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t xml:space="preserve">Volcano Circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volcano Circuit 5 laps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volcano Circuit 10 laps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volcano Circuit 25 laps</t>
   </si>
   <si>
     <t xml:space="preserve">Park to Peak</t>
@@ -464,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -485,6 +494,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -529,19 +552,27 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -551,23 +582,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G75" activeCellId="0" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.4387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.780612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,6 +778,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B10" s="0" t="s">
         <v>21</v>
       </c>
@@ -757,8 +790,8 @@
       <c r="D10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>37</v>
+      <c r="E10" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1.7</v>
@@ -811,83 +844,92 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4.6</v>
+        <f aca="false">$D$12*5</f>
+        <v>20.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">$E$12*5</f>
+        <v>85</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.1</v>
+        <f aca="false">$F$12</f>
+        <v>2.8</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="n">
+        <f aca="false">$D$12*10</f>
+        <v>41</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">$E$12*10</f>
+        <v>170</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">$F$12</f>
+        <v>2.8</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <f aca="false">$D$12*25</f>
+        <v>102.5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>13</v>
+        <f aca="false">$E$12*25</f>
+        <v>425</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4.3</v>
+        <f aca="false">$F$12</f>
+        <v>2.8</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>200</v>
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>180</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>10</v>
@@ -895,7 +937,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>31</v>
@@ -903,54 +945,57 @@
       <c r="D17" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="F17" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="G19" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,76 +1003,76 @@
         <v>8</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>130</v>
+        <v>7.5</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>6.43</v>
+        <v>5.4</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>225</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>13</v>
@@ -1041,33 +1086,36 @@
         <v>39</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>10</v>
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>143</v>
+        <v>6.43</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>225</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,33 +1126,33 @@
         <v>41</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>140</v>
+        <v>0.4</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>46</v>
+        <v>6.7</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>260</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>10</v>
@@ -1112,39 +1160,42 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>143</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>13</v>
+        <v>1.6</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,19 +1206,16 @@
         <v>45</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>260</v>
+        <v>0.2</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,73 +1223,76 @@
         <v>8</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>7.95</v>
+        <v>7.4</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>8.8</v>
+        <v>7.9</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.2</v>
+        <v>5.7</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>170</v>
+        <v>260</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>9</v>
+        <v>7.95</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>360</v>
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>320</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>10</v>
@@ -1249,62 +1300,62 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>9.2</v>
+        <v>8.8</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>13</v>
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>180</v>
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,33 +1366,33 @@
         <v>57</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>9.2</v>
+        <v>9.1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>13</v>
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>9.3</v>
+        <v>9.2</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>13</v>
@@ -1349,39 +1400,42 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>9.3</v>
+        <v>9.2</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0.3</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>9.8</v>
+        <v>9.2</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>190</v>
+        <v>0.2</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,16 +1446,13 @@
         <v>61</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>9.8</v>
+        <v>9.3</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>190</v>
+        <v>0.4</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>13</v>
@@ -1409,79 +1460,79 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>10.3</v>
+        <v>9.3</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>13</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>10.3</v>
+        <v>9.8</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>10.4</v>
+        <v>9.8</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>210</v>
+        <v>190</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>10.5</v>
+        <v>0.4</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>13</v>
@@ -1489,42 +1540,42 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>11.15</v>
+        <v>10.4</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,104 +1586,104 @@
         <v>68</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>230</v>
+        <v>10.5</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="B50" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>11.6</v>
+        <v>10.5</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>70</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>197</v>
+        <v>11.15</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>240</v>
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B53" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>13</v>
+        <v>5.7</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>73</v>
@@ -1641,10 +1692,10 @@
         <v>12.3</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>240</v>
@@ -1658,242 +1709,242 @@
         <v>74</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>12.53</v>
+        <v>12.3</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>160</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="B56" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>75</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>270</v>
+        <v>0.2</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>76</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="E57" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="0" t="n">
         <v>240</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>230</v>
+        <v>12.53</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>500</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B59" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>14.8</v>
+        <v>13.8</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>240</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>10</v>
+        <v>0.1</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>14.9</v>
+        <v>13.8</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>320</v>
+        <v>0.2</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>81</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>142</v>
+        <v>14.8</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>590</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>16.8</v>
+        <v>14.9</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>388</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B64" s="0" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>83</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>17.3</v>
+        <v>16.2</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1045</v>
+        <v>142</v>
       </c>
       <c r="F64" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="F65" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="G64" s="0" t="n">
-        <v>380</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <v>380</v>
+      <c r="H65" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>20</v>
+        <v>16.8</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,93 +1952,99 @@
         <v>8</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <v>400</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B68" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>88</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>20.3</v>
+        <v>17.3</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>13</v>
+        <v>2.4</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>90</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>91</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0.2</v>
@@ -1998,299 +2055,308 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>93</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>22.3</v>
+        <v>20.7</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>821</v>
+        <v>362</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>8.9</v>
+        <v>0.4</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>240</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>364</v>
+        <v>255</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="G74" s="0" t="n">
-        <v>450</v>
+      <c r="H74" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B75" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>95</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>96</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>192</v>
+        <v>821</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B77" s="0" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>97</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>23.6</v>
+        <v>22.5</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>487</v>
+        <v>364</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>23.6</v>
+        <v>22.5</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>7.5</v>
+        <v>0.4</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B79" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>99</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>23.8</v>
+        <v>22.8</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>823</v>
+        <v>487</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>10.9</v>
+        <v>0.2</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>270</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1161</v>
+        <v>163</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>102</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>25.5</v>
+        <v>23.8</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>13</v>
+        <v>5.7</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>103</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>25.6</v>
+        <v>24.2</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>345</v>
+        <v>823</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>13</v>
+        <v>10.9</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>104</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>345</v>
+        <v>1161</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>510</v>
+        <v>500</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>27.2</v>
+        <v>25.5</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>480</v>
+        <v>95</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="0" t="n">
-        <v>550</v>
+        <v>2.4</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>106</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>28.6</v>
+        <v>25.6</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>0.2</v>
@@ -2301,42 +2367,42 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>29.5</v>
+        <v>25.6</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>682</v>
+        <v>345</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>29.6</v>
+        <v>27.2</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>550</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,19 +2413,16 @@
         <v>109</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G89" s="0" t="n">
-        <v>580</v>
+        <v>0.2</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,13 +2433,13 @@
         <v>110</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>254</v>
+        <v>682</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>580</v>
@@ -2390,16 +2453,16 @@
         <v>111</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>580</v>
+        <v>0.4</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,36 +2473,39 @@
         <v>112</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>32</v>
+        <v>29.6</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>677</v>
+        <v>268</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>640</v>
+        <v>580</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>113</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>32.9</v>
+        <v>29.7</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="H93" s="0" t="s">
-        <v>13</v>
+      <c r="G93" s="0" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,53 +2516,53 @@
         <v>114</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>33.9</v>
+        <v>29.8</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>767</v>
+        <v>234</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>5.2</v>
+        <v>0.2</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>34.2</v>
+        <v>32</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>525</v>
+        <v>677</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>690</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>116</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>36.2</v>
+        <v>32.9</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>407</v>
+        <v>118</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>13</v>
@@ -2504,99 +2570,99 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>117</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>37</v>
+        <v>33.9</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>440</v>
+        <v>767</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>13</v>
+        <v>5.2</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>680</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>37.2</v>
+        <v>34.2</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>640</v>
+        <v>525</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>13</v>
+      <c r="G98" s="0" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>39</v>
+        <v>36.2</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>625</v>
+        <v>407</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>120</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>39.8</v>
+        <v>37</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>303</v>
+        <v>440</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G100" s="0" t="n">
-        <v>840</v>
+        <v>0.4</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>121</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>40</v>
+        <v>37.2</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>266</v>
+        <v>640</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>13</v>
@@ -2604,22 +2670,22 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>122</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G102" s="0" t="n">
-        <v>810</v>
+        <v>0.2</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,20 +2696,17 @@
         <v>123</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>42.4</v>
+        <v>39.8</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>651</v>
+        <v>303</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>840</v>
       </c>
-      <c r="H103" s="0" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
@@ -2653,13 +2716,13 @@
         <v>124</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>42.6</v>
+        <v>40</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>661</v>
+        <v>266</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>13</v>
@@ -2667,42 +2730,45 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>125</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>43.3</v>
+        <v>40.8</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>1117</v>
+        <v>544</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="H105" s="0" t="s">
-        <v>13</v>
+      <c r="G105" s="0" t="n">
+        <v>810</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>126</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>44.1</v>
+        <v>42.4</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1029</v>
+        <v>651</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>820</v>
+        <v>840</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,13 +2779,13 @@
         <v>127</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>45.7</v>
+        <v>42.6</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>883</v>
+        <v>661</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>13</v>
@@ -2733,59 +2799,56 @@
         <v>128</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>45.9</v>
+        <v>43.3</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>1683</v>
+        <v>1117</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G108" s="0" t="n">
-        <v>920</v>
+        <v>0.5</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>129</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>46.1</v>
+        <v>44.1</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>411</v>
+        <v>1029</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>130</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>47.38</v>
+        <v>45.7</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>973</v>
+        <v>883</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G110" s="0" t="n">
-        <v>950</v>
+        <v>0.4</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,30 +2859,33 @@
         <v>131</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>47.8</v>
+        <v>45.9</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>879</v>
+        <v>1683</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>950</v>
+        <v>920</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>132</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>52.1</v>
+        <v>46.1</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>0.5</v>
@@ -2830,25 +2896,22 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>133</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>53.1</v>
+        <v>47.38</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>678</v>
+        <v>973</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>1060</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>46</v>
+        <v>950</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,39 +2922,36 @@
         <v>134</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>54.6</v>
+        <v>47.8</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>529</v>
+        <v>879</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1080</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>84</v>
+        <v>950</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>135</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>55.6</v>
+        <v>52.1</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G115" s="0" t="n">
-        <v>1100</v>
+      <c r="H115" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,56 +2962,62 @@
         <v>136</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>67.5</v>
+        <v>53.1</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1340</v>
+        <v>1060</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>137</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>69</v>
+        <v>54.6</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>954</v>
+        <v>529</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>1380</v>
+        <v>1080</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>138</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>72.2</v>
+        <v>55.6</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1333</v>
+        <v>531</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>1440</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,39 +3028,36 @@
         <v>139</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>72.6</v>
+        <v>67.5</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>981</v>
+        <v>707</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H119" s="0" t="s">
-        <v>13</v>
+        <v>2.4</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>1340</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>140</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>89.3</v>
+        <v>69</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>2112</v>
+        <v>954</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>1780</v>
-      </c>
-      <c r="H120" s="0" t="s">
-        <v>84</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,16 +3068,16 @@
         <v>141</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>97.2</v>
+        <v>72.2</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1148</v>
+        <v>1333</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="H121" s="0" t="s">
-        <v>13</v>
+      <c r="G121" s="0" t="n">
+        <v>1440</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,19 +3088,16 @@
         <v>142</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>107</v>
+        <v>72.6</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1642</v>
+        <v>981</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G122" s="0" t="n">
-        <v>2140</v>
+        <v>0.5</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,45 +3108,111 @@
         <v>143</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>128.3</v>
+        <v>89.3</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>2335</v>
+        <v>2112</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>2560</v>
+        <v>1780</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>144</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>173</v>
+        <v>97.2</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>2496</v>
+        <v>1148</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G124" s="0" t="n">
+      <c r="H124" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>1642</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>2140</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>2335</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>2560</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G127" s="0" t="n">
         <v>3460</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/routes.xlsx
+++ b/routes.xlsx
@@ -584,11 +584,11 @@
   </sheetPr>
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G75" activeCellId="0" sqref="G75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.53"/>
@@ -1319,6 +1319,9 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B36" s="0" t="s">
         <v>54</v>
       </c>
@@ -2180,6 +2183,9 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B78" s="0" t="s">
         <v>15</v>
       </c>
@@ -2366,6 +2372,9 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B87" s="0" t="s">
         <v>35</v>
       </c>
@@ -2466,6 +2475,9 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B92" s="0" t="s">
         <v>8</v>
       </c>

--- a/routes.xlsx
+++ b/routes.xlsx
@@ -584,11 +584,11 @@
   </sheetPr>
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.53"/>
@@ -870,6 +870,9 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B14" s="0" t="s">
         <v>8</v>
       </c>
@@ -2395,6 +2398,9 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B88" s="0" t="s">
         <v>21</v>
       </c>
@@ -2501,6 +2507,9 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B93" s="0" t="s">
         <v>8</v>
       </c>
@@ -2521,6 +2530,9 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B94" s="0" t="s">
         <v>8</v>
       </c>
